--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.2-40-5.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.2-40-5.xlsx
@@ -40,16 +40,16 @@
     <t>requestCost</t>
   </si>
   <si>
-    <t>C,D</t>
+    <t>A,B</t>
   </si>
   <si>
     <t>A,C</t>
   </si>
   <si>
-    <t>E</t>
+    <t>C,D</t>
   </si>
   <si>
-    <t>A,B</t>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -441,129 +441,129 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2006</v>
+        <v>1538</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="F3">
-        <v>1636</v>
+        <v>1200</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>456</v>
+        <v>131</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>456</v>
+        <v>131</v>
       </c>
       <c r="F4">
-        <v>1433</v>
+        <v>1184</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>635</v>
+        <v>223</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>635</v>
+        <v>223</v>
       </c>
       <c r="F5">
-        <v>1923</v>
+        <v>1658</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>937</v>
+        <v>342</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>937</v>
+        <v>342</v>
       </c>
       <c r="F6">
-        <v>2387</v>
+        <v>2143</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -571,25 +571,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>1092</v>
+        <v>373</v>
       </c>
       <c r="C7">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>1092</v>
+        <v>373</v>
       </c>
       <c r="F7">
-        <v>2583</v>
+        <v>2117</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -597,77 +597,77 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1097</v>
+        <v>422</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>1097</v>
+        <v>422</v>
       </c>
       <c r="F8">
-        <v>1397</v>
+        <v>2221</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1159</v>
+        <v>496</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>1159</v>
+        <v>496</v>
       </c>
       <c r="F9">
-        <v>2545</v>
+        <v>618</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1285</v>
+        <v>636</v>
       </c>
       <c r="C10">
         <v>41</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>1285</v>
+        <v>636</v>
       </c>
       <c r="F10">
-        <v>2783</v>
+        <v>1857</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -675,25 +675,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>1348</v>
+        <v>661</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>1348</v>
+        <v>661</v>
       </c>
       <c r="F11">
-        <v>2501</v>
+        <v>794</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -701,51 +701,51 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>1350</v>
+        <v>686</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>1350</v>
+        <v>686</v>
       </c>
       <c r="F12">
-        <v>3113</v>
+        <v>834</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>1384</v>
+        <v>777</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>1384</v>
+        <v>777</v>
       </c>
       <c r="F13">
-        <v>2799</v>
+        <v>1760</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -753,51 +753,51 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>1491</v>
+        <v>814</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1491</v>
+        <v>814</v>
       </c>
       <c r="F14">
-        <v>2767</v>
+        <v>1853</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>1528</v>
+        <v>885</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1528</v>
+        <v>885</v>
       </c>
       <c r="F15">
-        <v>2950</v>
+        <v>1971</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -805,204 +805,204 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>1623</v>
+        <v>905</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1623</v>
+        <v>905</v>
       </c>
       <c r="F16">
-        <v>2665</v>
+        <v>2033</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1005</v>
+      </c>
+      <c r="C17">
         <v>13</v>
       </c>
-      <c r="B17">
-        <v>1749</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
       <c r="D17">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>1749</v>
+        <v>1005</v>
       </c>
       <c r="F17">
-        <v>2767</v>
+        <v>2363</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>1802</v>
+        <v>1170</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>1802</v>
+        <v>1170</v>
       </c>
       <c r="F18">
-        <v>3502</v>
+        <v>2187</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>1835</v>
+        <v>1350</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1835</v>
+        <v>1350</v>
       </c>
       <c r="F19">
-        <v>2830</v>
+        <v>2775</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>1848</v>
+        <v>1386</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1848</v>
+        <v>1386</v>
       </c>
       <c r="F20">
-        <v>3116</v>
+        <v>2949</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>1915</v>
+        <v>1475</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E21">
-        <v>1915</v>
+        <v>1475</v>
       </c>
       <c r="F21">
-        <v>2854</v>
+        <v>3158</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>1965</v>
+        <v>1492</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>1965</v>
+        <v>1492</v>
       </c>
       <c r="F22">
-        <v>3270</v>
+        <v>3031</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1506</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
         <v>34</v>
       </c>
-      <c r="B23">
-        <v>2045</v>
-      </c>
-      <c r="C23">
-        <v>34</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
       <c r="E23">
-        <v>2045</v>
+        <v>1506</v>
       </c>
       <c r="F23">
-        <v>2234</v>
+        <v>2540</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
@@ -1013,100 +1013,100 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B24">
-        <v>2225</v>
+        <v>1518</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>2225</v>
+        <v>1518</v>
       </c>
       <c r="F24">
-        <v>3619</v>
+        <v>3298</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>2231</v>
+        <v>1711</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>2231</v>
+        <v>1711</v>
       </c>
       <c r="F25">
-        <v>3921</v>
+        <v>1856</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E26">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="F26">
-        <v>2657</v>
+        <v>2806</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>2599</v>
+        <v>1877</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>2599</v>
+        <v>1877</v>
       </c>
       <c r="F27">
-        <v>3797</v>
+        <v>2979</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -1117,22 +1117,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>2665</v>
+        <v>2025</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>2665</v>
+        <v>2025</v>
       </c>
       <c r="F28">
-        <v>3844</v>
+        <v>3548</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -1143,48 +1143,48 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>2728</v>
+        <v>2089</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>2728</v>
+        <v>2089</v>
       </c>
       <c r="F29">
-        <v>4440</v>
+        <v>2236</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>2889</v>
+        <v>2286</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>2889</v>
+        <v>2286</v>
       </c>
       <c r="F30">
-        <v>4170</v>
+        <v>2433</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1195,103 +1195,103 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>2956</v>
+        <v>2350</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E31">
-        <v>2956</v>
+        <v>2350</v>
       </c>
       <c r="F31">
-        <v>3938</v>
+        <v>3864</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>3017</v>
+        <v>2500</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>3017</v>
+        <v>2500</v>
       </c>
       <c r="F32">
-        <v>4797</v>
+        <v>2649</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>3077</v>
+        <v>2671</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>3077</v>
+        <v>2671</v>
       </c>
       <c r="F33">
-        <v>4873</v>
+        <v>2794</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>3081</v>
+        <v>2695</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>3081</v>
+        <v>2695</v>
       </c>
       <c r="F34">
-        <v>4546</v>
+        <v>4385</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -1299,22 +1299,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>3268</v>
+        <v>2707</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>3268</v>
+        <v>2707</v>
       </c>
       <c r="F35">
-        <v>4434</v>
+        <v>4421</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
@@ -1325,103 +1325,103 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>3329</v>
+        <v>3260</v>
       </c>
       <c r="C36">
         <v>37</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>3329</v>
+        <v>3260</v>
       </c>
       <c r="F36">
-        <v>4917</v>
+        <v>4589</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E37">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="F37">
-        <v>5115</v>
+        <v>4982</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>3428</v>
+        <v>3424</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>3428</v>
+        <v>3424</v>
       </c>
       <c r="F38">
-        <v>5047</v>
+        <v>3545</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E39">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="F39">
-        <v>4595</v>
+        <v>4488</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -1429,54 +1429,54 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>3432</v>
+        <v>3502</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E40">
-        <v>3432</v>
+        <v>3502</v>
       </c>
       <c r="F40">
-        <v>4461</v>
+        <v>3584</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>3465</v>
+        <v>3561</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E41">
-        <v>3465</v>
+        <v>3561</v>
       </c>
       <c r="F41">
-        <v>3622</v>
+        <v>4500</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
